--- a/biology/Zoologie/Grayenulla_dejongi/Grayenulla_dejongi.xlsx
+++ b/biology/Zoologie/Grayenulla_dejongi/Grayenulla_dejongi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grayenulla dejongi est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grayenulla dejongi est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kimberley en Australie-Occidentale[1]. Elle se rencontre à Lone Dingo sur le plateau de Mitchell.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kimberley en Australie-Occidentale. Elle se rencontre à Lone Dingo sur le plateau de Mitchell.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,80 mm de long sur 1,40 mm et l'abdomen 1,45 mm et la carapace de la femelle paratype mesure 2,40 mm de long sur 1,95 mm et l'abdomen 2,30 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,80 mm de long sur 1,40 mm et l'abdomen 1,45 mm et la carapace de la femelle paratype mesure 2,40 mm de long sur 1,95 mm et l'abdomen 2,30 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Aris E. de Jong[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Aris E. de Jong.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Żabka, 1992 : Salticidae (Arachnida: Araneae) from Oriental, Australian and Pacific regions, VII. Paraplatoides and Grayenulla - new genera from Australia and New Caledonia. Records of the Australian Museum, vol. 44, no 2, p. 165-183 (texte intégral).</t>
         </is>
